--- a/biology/Microbiologie/Balamuthia_mandrillaris/Balamuthia_mandrillaris.xlsx
+++ b/biology/Microbiologie/Balamuthia_mandrillaris/Balamuthia_mandrillaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Balamuthia mandrillaris est une espèce d'amibes, seule représentante du genre Balamuthia.
 Identifiée pour la première fois en 1996 dans le cerveau d'un mandrill, elle est un agent (avec les amibes du genre Acanthamoeba) de l'encéphalite amibienne granulomateuse.
-Elle infecte l'Homme mais aussi de nombreux mammifères[1] et oiseaux.
+Elle infecte l'Homme mais aussi de nombreux mammifères et oiseaux.
 Les enfants semblent plus particulièrement à risque de développer la maladie.
 Amibe tellurique, sa répartition est ubiquitaire.
 On compte actuellement environ 150 cas connus d'encéphalite amibienne granulomateuse à Balamuthia mandrillaris à travers le monde, les cas les plus anciens identifiés remontant à 1973. Ce chiffre reflète certainement plus la difficulté à diagnostiquer une maladie peu connue que la réelle ampleur de l'affection.
